--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/7_Ankara_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/7_Ankara_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30E8541-2A7D-4BD9-A2CC-82318F6F8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC396BDF-95B9-4CA1-9FDE-7B70ECD9FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{1086A722-ADB7-43A0-BFC3-AFAEBA839064}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{C6C6A051-E720-4BEF-8C36-14978BD050BE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -948,15 +948,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E2750F71-06C0-4705-BEC1-BBEB5F820861}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A6545454-6A2F-41B9-9F21-FD34D56D8034}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{969F5DD0-D536-431E-987C-E52143CFCB6D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{74F075CA-1C3D-4884-9F28-AAF05040BD30}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{4D28E259-2420-43AF-882C-457A1FA1268C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{A244B4EC-991C-4DB8-BCCA-18C65E2171C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{8F17CFE0-72D5-4F07-964D-0D7BE078EBD9}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{E9AD9BB1-61AF-4DB5-970D-37D2A245019E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{98B35889-905F-4215-8671-B7D22D97FFC1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{38E2DC79-D631-4D40-9E7B-A878B408A29B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{46C6B9BC-DD75-480F-A376-C9CA0747F5C2}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{21D78AE9-A09A-4288-9D9E-E607D5EF8A29}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{CB1D33F9-CB84-4105-92E2-AB18AAAAC159}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{34BCA8C7-83A2-425B-BFDA-55B75BD1FBD1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{8FDD61E5-4ADF-44F1-BB48-800004E5EBC7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{94479906-277E-4150-ACC1-8DB8CFBE4A16}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{D50C082B-1717-40A4-A577-A3CD8C55B7B0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{A20382DA-1828-45C8-BA8A-3D1B5B0BB41E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB630947-9440-410D-8902-6BB7A139BB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D0DF6D-72C3-49D3-8274-A05B141A71EE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2661,18 +2661,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF7CA461-554D-4EF2-9182-4BD77742F1F8}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2948BE48-2ED1-4CA1-9022-4DD66AA0A8D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A847D29-E6C2-404F-A003-B811F5175D4D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C63AA782-2982-4191-833E-89ECC386F2D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACFF6FA0-6895-4F7F-89D4-3A7B8209643D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64C0B9CA-214C-4D39-83E4-605674DC537C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF5491A8-04E2-4C6D-8132-6105E27257C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18E141FB-C179-4A7E-A031-071FBC8EE091}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34182DCF-D184-4AC4-B5F8-AB969FA60910}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CDC48FB-C60C-4E3C-8B56-062CF6434A47}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7E3F04C-1044-46CA-AA7E-300C6F219328}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45249348-7C40-47C0-B93C-92F442157986}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BB2255D-9695-47D9-BA20-B4959FE4CCFB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8EC398D6-7500-4FF9-9FEF-E7F0F7C91968}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0687A84F-AA2A-4DED-ACC1-39D7DB2D2385}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9F0F908-B492-4413-A041-D194EDEC144D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E1DA397-A237-4CF3-86E5-1EE1E5BF2A6F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E2AD85E-6900-4410-87F1-33A411F5A3AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E829C87-EDAD-4F04-A7F6-D0318AFF4B1F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CACF542-6A98-4EE6-83DE-F7B14DEF6EEE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{746BB297-5322-45B2-9565-D7964DBEE638}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F2E626B-80FA-4647-86E5-1343268783D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71796A98-83E6-4833-B885-DD1778DCC2CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{412DC5AE-BD56-4FCB-84DF-F9837E46A0A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2685,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD74865-8CE8-46EB-96D0-A26E3540BBAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9C5C2A-315D-40CB-9F19-ECC6FE0A5EEC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4001,18 +4001,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61350CD5-EECC-423B-B90D-0E85B1A669D2}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3182BDC5-5EE7-40C9-903E-1017CCEECE4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEB97368-9908-4BD9-B1C3-E1875B6CEBA6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF7013F4-6C78-4BBC-9348-43BD9CEED1F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0591E19-8DC2-4A7A-8EFE-9334251B6DC0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD4A2C2D-00F7-421D-B05A-93792A31BB30}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9276FD65-EF41-4CC4-8AC6-1EEFE3909BF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A495F4C4-7F69-41DC-A3C9-7C71CEBF3605}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E160AB1-67FE-4DFB-BCDC-0609EE33B9BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4025BE2-FAA0-4EAD-8C3A-4142AC464B4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7314C85C-A206-4A6B-8A75-820520FA3285}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BB1EE21-1AAF-4E4E-BCF0-F280FE618AD0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD232689-901F-4B31-8ABA-22DAAD0955C1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8CB3C9EF-B10E-4161-9C9D-C541D81A8835}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F850641C-A911-49D5-B4EF-0A758CBC5456}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4962CB48-7547-472B-9E61-C58ACADDA3CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95EFE6B3-F2F1-4D45-8235-4A3B0D39EC5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58681CF0-B0F8-488D-A51E-84DFA1541A2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{941EEF2D-BB36-4D97-B237-CE43229A565B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B50DA1E-9FB3-4CA0-8014-AA7E1B8B821C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B49141B-299D-4BEC-B71B-2F0E598740EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05A795C5-E62B-4817-A146-CE3572D53C63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06CCF291-AAAB-484B-8900-EB4C68E242F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{053A50EB-B23A-4A16-B26B-6A0435F85CBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4025,7 +4025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF21AA-D936-41A5-8934-D2BF7C60550F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70F8E8-A571-4F3F-AF34-5F44F765F290}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5341,17 +5341,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34307E49-C9CA-44D0-BF3B-7CC45DB55763}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{480292F0-ED92-4D09-9F8C-395CF9F7806F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2061D268-0535-4B4F-9CBB-A2D1AC6CCB79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6F3B56D-7C0B-48AC-AA3A-C502B203BADA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7788541E-3204-4AE1-B10C-D69D75ADA2D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75EE2E78-B755-46A6-927B-19A1791FDA6D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95C62A3E-33A2-441B-AF29-F2112CCADC1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0363FBB1-1C97-4413-87BF-22FA56F699F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40FFA24E-E4AB-4E57-BD6A-B943CFFF3207}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05157283-5F53-401D-BEFF-A214C6202B5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A698EC74-7C9C-4AE1-A32A-881F5BB15BAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B34C0A4-8240-46C3-A878-A50B2176E4FC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{45AA9B6B-2623-4A8E-B2B9-97F7018A998C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0448008A-3DE9-4D49-A444-26FDE0793F36}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1474C09-8E44-431E-A16B-DFE83A64FF91}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE6BE6DF-21CB-4B97-8CF5-84EA812374F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B101427-FF41-4D22-9564-1AB000062A08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B5AA0B6-A97F-423A-9DEE-312CD52BD823}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D60642AF-AC95-45AD-8453-1B7D300DB355}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7FD6888-0F7B-4AEB-9CB0-9C01E143D864}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E53DA900-CA73-4A2C-884D-8835BD7B7CD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{768F95F2-4897-4D05-83EC-C602D5327B17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5364,7 +5364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00ED890-CF8A-4B74-A475-2C80016FC08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3F830C-A4F5-47EB-A3EA-019B92D41922}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6672,18 +6672,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A87FD7F-4472-48E2-877C-023D0E4C3712}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1324EC79-EF5C-443B-941E-1ABA45F99E3E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{48D686DD-D93A-4D82-98B2-2BCFB953E0DD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82EA3FF4-442B-4FC9-AEA7-854DDAA84F8D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{563563B9-E212-4D10-8136-B723E81CDF9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DDA7D88-6D31-4C59-AFCC-AAC0323F75FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F7CD8B7-26FE-49FD-BF7A-42E1078CBC2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{699165CD-5C00-4CA0-9D17-7B09AA4E4A23}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7F94F64-CF08-4193-8E87-268CA3C6D1A3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F051947E-7A68-49A9-92E0-B90FA89FA892}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31BACAAE-6205-41B7-9428-74EB029F4698}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06DA4701-218E-49BC-8805-5B0E24033FD0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA77C68B-E814-4763-950E-AB3BF8BB5D06}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFAF993A-D89F-484C-973A-57668CC6A678}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B7080AD8-3B5F-4B51-AE3A-C11E66F88A00}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1935B3E5-7AAF-45FD-BF5A-B7DE90A2BF23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA75AD04-D75D-43CC-83D4-ABA92A139C93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{286FE904-F08B-478A-835A-907D1D7ECF88}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CFF6CF3-55BC-4F33-871C-DA9C4F57F9FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3B43289-47E4-4A5C-A989-1A8678E7CAD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00ECA887-A69D-4C6D-B12A-4B1C9D97BE0A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{371F9202-32F5-4012-8DD7-1504FD018630}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77573C9D-5C5A-499E-B76A-1E8B24FCE35B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D13556F9-5885-4199-A84E-BB04ABBF3924}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6696,7 +6696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540234CF-8D6D-4979-B28E-37647AFF5C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD79CE3D-A565-482C-A246-C2210292D6B3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8031,18 +8031,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC52E365-BE8E-4FB6-A403-5ACDC247A957}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{16315989-FF5E-4168-BCA1-F6E8F79D4A8E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E036D54-DE2D-4C60-BD71-F69821A85550}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6CFCE9E1-0CB5-4A53-A79B-2107C8178CDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5ADBDD9A-D5AF-4370-97EF-0592BEE29595}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AB582A0-5A4C-47AE-AA07-034AB4F7EBA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A6348FC-7400-4181-BC38-79810C35C342}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{817D9FDD-7BDC-46F5-AD69-9E79E8709EA5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB4345C9-FBD7-49D6-83D7-388917C7E08F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25F43E93-CB48-40A4-93E8-5FBDC8F023AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{642A6400-A3C8-46C6-A2D0-BD7E5359CF20}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{277D9366-4369-423F-8CDE-42B093FBE3FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20F0C213-893B-4B3E-9B6C-9C9E0F874BEB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EAC0B002-5312-416D-BE16-B92C0AF10D0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E95AEBF-44EB-4DCB-9859-C405865A93EA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB1466BA-5E9A-445A-B161-FDEC6ECACABB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C5A04FF-D80C-4E7E-974D-0E9813C69C46}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B717A22-451B-407D-923F-A1EFD2EE2517}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C46867D-8EE7-4659-A5A9-5BC4B121920D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8519682-7F8E-4540-9E9B-13D146CFF331}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C94342D-BCD9-464C-BF01-514C09BE2675}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D28396E2-79DF-4425-9BA5-696ACFE0A175}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7927C70-A58A-435A-940A-9F6F8D7CF3CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2457BBB7-E7B7-4FC3-96B6-D857E71C8B82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8055,7 +8055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC8571-A305-4F9E-99C4-7E64263D4E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2544CEA-95DA-4459-BB0D-C512B1E75A4B}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9391,18 +9391,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17C73389-B314-4EA8-AF81-DCEB7FFB996F}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9E6E4C6D-AB26-464C-9972-FC8D97EFB77C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48172DFC-E6AA-4A72-B2E2-126FAEA9F1A8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C28DB2A6-4429-4DC9-9F5E-F89C9635EEA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64288D27-4BCB-4201-9808-4F168B7F4371}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AAC60499-BF10-4629-AB6E-C06E66F59ADA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15807EC9-277F-43B6-B8A3-10DF2500FEAF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35CDD071-2EB8-4FD2-88A1-F81329A8888C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32852EF7-3F9C-48E1-9049-341503079A67}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6877CC6-8BCE-42D7-84C2-6EE89E89072A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97124947-5497-4191-B75C-A60F8BEC79B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3BCC51D-5B5E-4BBC-8D0B-E57B25B8D0BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7C9684D-3CF1-4B9A-AF06-57CBFEDA9BF5}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7159B091-CB59-4580-8176-A2E3C1284383}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0E59633-DB89-4AD1-ABE8-5DEE152C3431}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CC2FC04D-6385-44E4-A88C-E01ED8F26172}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75E7FFB1-B585-4840-93A1-FB75B2689F49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E9B5A63-3ACD-4C07-BF9F-D67E86419759}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E7528DD-4F1C-4511-9D18-50EDA2FD0970}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55A0B16D-3796-492B-9217-7334CC5CF448}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B07E2F0-5C5D-47DC-8CB2-5B302121B199}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C642C039-3162-462E-B603-E21962466FA5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18A6C028-189E-4BF3-BF79-DCF2C36A805A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6455B85D-ED72-4DE6-B2A7-E11CBBB2EB04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9415,7 +9415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA4B6DF-7568-4D89-87F0-BCBFA61F27C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6752A-B4D4-4D54-9EF6-629FB913A401}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10747,18 +10747,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67389157-5F46-4538-B3A3-5717587BC970}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{64DCC7CD-2C14-459B-90A7-DB245D350ADB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A719B3D2-EEA0-4C96-A3EB-684A7D197002}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6EB95024-FB0E-4E7D-A707-B6447B801026}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E7DDB52-86EC-486A-A91F-FB5102E5F081}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8EDBC94-670B-4A02-A12B-C6EB3E43E37B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA551E53-6CC6-4184-8A96-5935D58FB1C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A44D2566-F2B5-4AFF-A6BF-BAD3A50A257D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3AB8262-DBB9-4AC9-88E6-F29E51564229}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64F566BD-6179-46ED-8206-2B8EA0460593}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EDF38AD-2CCD-4CD4-8731-839F6D0487E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{10D8DA80-855A-4A08-AC7E-675ECAABAE1B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0304FB69-2090-430B-90F5-E73F118B0276}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4697F934-3103-4E83-A126-6B64D55C4B68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9589251E-C647-4329-B49F-0482923A7565}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA9AD56F-A680-4C5E-9B96-15AEB7E6D41B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39A1934C-A70F-4CCB-9101-1CC8E65221D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1B30423-1BC7-42E9-9CFD-B438DB767C8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{834B8524-D098-4E63-94B2-13CF7A5E35DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1FEE446-CB84-4DED-987A-63D8AC004CDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12412498-A2E3-4121-B207-70CC138AEA9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98F64FB2-8140-443F-BFAB-86A882544195}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0187178E-428B-44FD-834B-F599F89146AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4DB1423-B2A5-4C2D-AA6A-32709E66BDBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10771,7 +10771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB354D36-2BE8-4ED2-9784-BD7589805761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BBBA2F-FA0A-43F4-A18B-483AD2241088}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12099,18 +12099,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4D70C21-B1B9-440A-A49C-2D299377467E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{856E8CF8-9FB5-4A1D-9519-47E7BD3FDA99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED20840F-6828-4F8A-83A9-A530B3187319}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{41574CD2-6884-4787-9FA0-7EF49D17486B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C129EAA9-D005-45F3-8E7F-B6474552205C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05BC526E-DA73-498C-92E4-9D7CD30BD7BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B82518A-250D-4467-B956-511C1712449F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3E0344D-F89C-4707-9288-84A821548608}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71BBF4BF-E8A4-458E-9AAD-D59310BE1A7B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D862A13E-D84C-47D8-9288-23E8AC54E98F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06113834-B10A-43C2-9D4C-EF469ECC8FEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B5EE2F9-586E-474C-988D-5F955BA9FAA9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{139EE1FB-AD4A-4473-8594-F09C3979DC24}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A167FF4A-DF4A-4C1F-8DB1-31FF0AD94BD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{475F5F75-F500-4E85-8477-EAD00A8FE6AC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0C9BCA6F-7D57-400E-862D-D52749641140}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86A43A9D-1BBE-441D-BEFD-B8FDDB0353AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA2AACAD-2BE8-427B-B428-AE8DDE8A2012}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57590B67-960B-463E-B178-7D44159198CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19482224-CC17-4BCD-88A1-7F7CCA21DFA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{021D75B9-C2FB-4377-ACFF-8A6B0F63B086}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{937E17F3-A118-4D50-BAC1-DF139D2E9CAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42FAAB63-A997-40D1-B831-A0468618A46A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F52EF89-9674-40CA-B26D-D31F9AACF4C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12123,7 +12123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936B3B74-5331-4DB1-930F-1059331E1BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E458B5-F11C-4126-AF88-3206FD8C9858}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13443,18 +13443,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10A35930-4017-41BC-A696-8CC271BF408E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1908B012-B2F4-49D2-ACC1-E20CF28626A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{348C9C66-CC65-4F4E-B17D-31DD92CCD9A3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{192228AE-D10C-4F90-B3C6-F1CED4B49C03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AEFAC19-87CB-497F-9CB8-6161303C833D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45E6FE32-6D15-4955-A238-B90C5F152BF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAB59248-1999-4318-A4BB-CD3BD0886442}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77C913A6-D6B7-460A-B8CC-5A654DA99BBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E767051B-3C9C-466B-B404-A6C1D586AD8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB89A0B7-03DD-457F-8079-3249B163F928}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8BC2DCD-1958-4299-98CD-79805CAD4F5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AC7852D-FF74-4223-92FD-F9371947DAB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE695667-F9D1-4AF0-BB41-CB8A6DDD07BD}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C0D4C0DA-B7FC-4B5C-B373-E486B9333435}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{289C4C88-F3E7-4FEB-8678-8F02B01C7339}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD29A89B-D47A-42A4-8F0F-4D6334E54DF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C60C792-BF07-4EA1-94AB-DD6EE8D3DAE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9CE2EC1-A763-47FA-B94F-AF933264751B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF1BDD45-8F6F-4947-BF3B-B3338850C780}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90C79576-AEE5-4CAB-82F3-B65FFB02A91D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62763D0C-CCBA-46B3-B62B-1C811DD0C44D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD4CF1C8-DB26-457A-9AFA-D9C332ED3D79}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{885B1084-42A6-4CD4-A358-4E0C19912CBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{957256C2-C931-42D0-BB43-A0F1C15B7F3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13467,7 +13467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5590B903-F4EC-4720-8AE9-1E54CA40E85C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516042B4-7651-4B07-950F-9B92BE9875B0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14783,18 +14783,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E486072-8194-4707-98CE-AE71C83D6AD0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6BE32EA3-FE3F-4D20-AFD4-ADDA6DE0E3C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85A2442A-F1E7-4F93-A48E-0D45B0A717EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C76DEA69-B329-4E51-B46F-596E15E56481}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1413E0BF-6592-4D12-92D8-F9B279200E07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAAB18D1-4A7E-4589-A581-CD265FFA375F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C81D7F6-5C9F-4C35-B7E6-FC880A6C8F7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB9F5DA8-585A-45EE-9045-EA8AD4DE2893}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E1B6311-AE37-40B4-8F27-246756DC2EF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9872D9AE-11B3-48CA-9874-C93A3F4D97D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25BB5547-FD5C-447A-8B15-C3CF0BEB7981}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{455EE7B3-8023-48BD-BFBE-4F25D3FC3F62}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CCFB0C1-660F-4200-8589-254DF37E2D5F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A91BC500-DA59-4194-96DE-8FBC10FDBD29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6423CD9C-FB72-43C6-9139-93D2C053A758}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AB66499-DC93-40B1-8AC6-B85892D4DF12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7AB395A-97A0-462D-9AAD-3388CEC5F293}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3320B244-9ABB-4AEF-953A-D61F7F950D86}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F12EF108-13E6-409A-89D3-4F30BC97E3A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{174D71AC-C0FB-43C3-9C72-86A3D29D33E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D1EC96A-F244-47F9-9B99-9317FA1EB852}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E611F789-EB0A-446D-A2B2-390EEF9B9548}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C9BCD20-E821-4298-9E37-6077F0BC16E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACB13BC6-5554-48BC-9557-75E79CE70CF7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14807,7 +14807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E722BF27-8A01-4F01-B84A-5C9A489781D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F14B71-4A3E-486F-8697-3B2E5C053994}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16123,18 +16123,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FC289F3-ED34-4D02-AACA-7B97745B5B72}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C3B0E352-75B5-4BBB-934F-B36C7958BDA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{527F9CF3-AD7F-4C8E-A025-739DA4C65DBE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7BD41ED-7860-4036-BE13-8615EC52AAD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{562AD9FD-D543-4C85-B18C-B43EAA66B94C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FCE8278-053B-455C-9679-7857CFFA5592}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{800E30F5-7D66-46EA-ABA2-B328319147D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E28D8750-3EF9-4ADC-973E-AFCB948001F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{811FB617-9612-44D1-AF8C-24CF00512DC6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{377C19AA-3CB5-42A8-A217-369628E6D44F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E53D7EA-7F17-4773-86B4-AAEBA9690DFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B98C40C4-5AB5-42F9-89BA-5BDBE517781A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E15AA71-4D9A-4D31-8083-16FB3E31D339}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AB56163C-C70C-4257-809B-6AA80B5E1ACD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9769A075-0959-4911-9212-2F216BD957F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4ADC189A-B248-4265-AA46-81A0DDC40ADD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71893C0B-8EFF-4444-9AFF-5FE3EC28C78A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B81F83CB-4371-4C52-9EEE-C8425F8E1B29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32FF0A92-F9DB-4BEC-A72C-26B73CC7384A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0BE7F77B-CE19-4679-9D59-E794D0CCE8E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E92C330-F995-43D5-887C-B09E8CCD8C29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5EDE93B-6756-4C5E-9965-68BB390216E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42149A37-A238-4D59-8115-2DB960CD6CF0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A09BB74A-26A0-43C1-8CE9-4094C55F19B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16147,7 +16147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDBF72-4B5E-4DDA-B8EE-D918CFCCCB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4074CB01-60A6-4F61-BC1C-2D4A46A66D26}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -17463,18 +17463,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36E87988-55FA-4709-93F7-DE5AEC8297D4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{94FBB1D2-9EDC-4BA5-9077-5F3EB1381CA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61EE7301-490D-4558-BA9D-6343F5C99664}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{076E0DF5-E475-4078-B9BE-93E441C4E933}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E33F7B5B-53C6-4D32-B9BC-30C6601A0F0E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE5B51C6-88BA-456D-9A0D-0E2AF56EE0E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78EB1EA3-0A82-42ED-B94E-B81E372C2140}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3969DA9B-1923-47C6-AD86-73D59C2ECF9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85448C7E-672A-473C-81D6-1F554A53CA0E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB2BFB8F-795C-41C9-B545-F80BD35E11D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C916070F-0745-4CD1-AA8B-452EE687A07D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D8F90AB-513C-418D-8F94-E9FD2455356B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AECD21F-17BF-428D-BE2A-A868F1597C2F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A57FEA1E-DBB1-46A6-BC2B-7BCFC6335E43}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48F6DBFC-5070-4E9E-B418-D3F1AADFBBE8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36502275-07DC-4EA7-8DBD-5DF018CD496D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4245E539-79D4-41CF-9226-56EDFEEFBE66}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAB0460F-B91D-4029-8766-BC1D86ABC91D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E6DEDD8-73D1-4C86-AD13-075BD3EBAB45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{866EF5CF-3F70-4199-94F8-38AD22EB6A6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F91EE30-C94A-46E0-AE1B-07970B520932}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA0BC436-6CB3-4291-8E0B-78289D914513}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{302D6982-E6D8-400B-9677-8DB111ABAC00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2CCA5C2-A9D4-437A-89B1-E501F91AF505}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
